--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
@@ -76,10 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,28 +534,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2972863333333334</v>
+        <v>0.03814</v>
       </c>
       <c r="H2">
-        <v>0.8918590000000001</v>
+        <v>0.11442</v>
       </c>
       <c r="I2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="J2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N2">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.03884016216366667</v>
+        <v>0.01292722245333333</v>
       </c>
       <c r="R2">
-        <v>0.349561459473</v>
+        <v>0.11634500208</v>
       </c>
       <c r="S2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="T2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.418502333333333</v>
+        <v>0.2972863333333333</v>
       </c>
       <c r="H3">
-        <v>4.255507</v>
+        <v>0.891859</v>
       </c>
       <c r="I3">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686812</v>
       </c>
       <c r="J3">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686811</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N3">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1853259113476667</v>
+        <v>0.1007626262017778</v>
       </c>
       <c r="R3">
-        <v>1.667933202129</v>
+        <v>0.9068636358159999</v>
       </c>
       <c r="S3">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686812</v>
       </c>
       <c r="T3">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.92910633333333</v>
+        <v>87.12790666666666</v>
       </c>
       <c r="H4">
-        <v>164.787319</v>
+        <v>261.38372</v>
       </c>
       <c r="I4">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069209</v>
       </c>
       <c r="J4">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069208</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N4">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>7.176432813343667</v>
+        <v>29.53124885614222</v>
       </c>
       <c r="R4">
-        <v>64.58789532009301</v>
+        <v>265.78123970528</v>
       </c>
       <c r="S4">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069209</v>
       </c>
       <c r="T4">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069208</v>
       </c>
     </row>
   </sheetData>
